--- a/data/trans_bre/P25_12-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>14,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>210,13%</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>190,29%</t>
+          <t>121,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>198,68%</t>
+          <t>203,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>222,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>90,1%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 13,9</t>
+          <t>0,7; 12,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 17,59</t>
+          <t>8,01; 21,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,49</t>
+          <t>4,25; 16,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,02; 473,26</t>
+          <t>1,06; 17,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,4; 381,48</t>
+          <t>2,22; 460,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,31; 413,6</t>
+          <t>73,36; 496,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41,86; 590,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 262,85</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>142,54%</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>186,32%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>147,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>87,92%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 15,31</t>
+          <t>0,09; 15,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 16,5</t>
+          <t>2,82; 16,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 12,85</t>
+          <t>-4,2; 9,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 378,15</t>
+          <t>0,84; 16,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,87; 450,33</t>
+          <t>-8,12; 297,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 250,88</t>
+          <t>18,24; 427,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,18; 163,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 263,14</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>151,68%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>406,84%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 11,69</t>
+          <t>-9,61; 17,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 23,78</t>
+          <t>-0,36; 30,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 18,43</t>
+          <t>-10,75; 27,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 1017,7</t>
+          <t>-19,26; 21,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 1119,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 487,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-54,56; 763,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-68,48; 473,65</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>166,83%</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>185,2%</t>
+          <t>102,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>133,64%</t>
+          <t>194,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>76,38%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,46</t>
+          <t>2,54; 11,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,76</t>
+          <t>8,2; 17,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,77</t>
+          <t>2,39; 11,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 312,72</t>
+          <t>2,59; 13,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>101,45; 331,92</t>
+          <t>21,78; 228,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,35; 248,93</t>
+          <t>82,95; 396,83</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 215,23</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 163,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_12-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>121,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>203,73%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>222,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>90,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.620024104464754</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.51726490706959</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.03034209555613</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.657816199785579</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.502925630263813</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.030300416394265</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.403695932219005</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9483002840324946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 12,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,01; 21,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 16,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 17,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 460,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>73,36; 496,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>41,86; 590,65</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 262,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.722856228032005</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.652076913710435</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.742591944058535</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.470138755948748</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1005874049908166</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.6600863353449565</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.5312311422204092</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.02586339961739249</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.84423438728269</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.85610980186556</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.80499253478169</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.65462007447695</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>5.211774106073004</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.91409279412856</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.307304135098294</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.717305826483824</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,62</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>95,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>147,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>87,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 15,21</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 16,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 9,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 16,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 297,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>18,24; 427,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 163,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 263,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.012535470045641</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.536775106487617</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.093560692766971</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.920279455409633</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8032657974425493</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.331833977685234</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2342397069167391</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9250307874640965</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>43,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>406,84%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>68,63%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.094033811385838</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.997165992106947</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.909316005590039</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.47366025009321</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2781950732181822</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.05497309048937546</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4046655522679966</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.0775649238524259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 17,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 30,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 27,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,26; 21,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,56; 763,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-68,48; 473,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.43576239433282</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.23679916090009</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.211984800433344</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.98511791540443</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.887090416707566</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.291255217324343</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.550508920386355</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.606624117356658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>102,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>194,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>96,63%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>76,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.623860101644882</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>17.23908070203627</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.360726071317949</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.710697332409481</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4508776794005923</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.786171110497493</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6277789500921033</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1745115302392338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 11,04</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 17,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 13,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>21,78; 228,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>82,95; 396,83</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>21,2; 215,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18,41; 163,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.927627946943705</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.15253105923539</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.18375132491218</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.97069487785475</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5620749737027123</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6578216248059083</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.34025306804834</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>33.30544317965887</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.51590566945658</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>21.49667813133157</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>7.679599989676997</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.231338903015499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.826194997163331</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.80539542584431</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.006944177192503</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.586067445249503</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.02206914935413</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.859861828767738</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9513170842177101</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8107616630038045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.956514531585434</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.991370552558753</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.267189283135202</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.912689652901002</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1304025648792172</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.7011429006174612</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.20506165804797</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2346465951488806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.11803106000841</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.83203858567838</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.4052074162459</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.6681621151414</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.345530945876955</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.828227219625783</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.151120177585064</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.728847300782805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1017,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
